--- a/Users/VinhHNQ/MockProjectInterface/MockProjectInterface/ImportData.xlsx
+++ b/Users/VinhHNQ/MockProjectInterface/MockProjectInterface/ImportData.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CongViec\FPT_Internship_2018\MockProject\WAD\Users\VinhHNQ\MockProjectInterface\MockProjectInterface\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1DA7F9-CD00-4813-89A6-293FC3EFF7A8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D641162C-1703-4BB9-8658-1F8D191FEB37}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{56A6FD76-0411-41DE-9CCD-042A295DD6F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179021" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -39,13 +39,16 @@
     <t>Block</t>
   </si>
   <si>
+    <t>Status</t>
+  </si>
+  <si>
     <t>WC1</t>
   </si>
   <si>
     <t>VinhHNQ</t>
   </si>
   <si>
-    <t>MIT</t>
+    <t>Ha Long Bay</t>
   </si>
   <si>
     <t>FT1</t>
@@ -54,53 +57,15 @@
     <t>WC2</t>
   </si>
   <si>
-    <t>KhueHM</t>
-  </si>
-  <si>
-    <t>Lab1</t>
-  </si>
-  <si>
-    <t>WC3</t>
-  </si>
-  <si>
-    <t>ThanhLC</t>
-  </si>
-  <si>
-    <t>FT2</t>
-  </si>
-  <si>
-    <t>Canteen</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>WC4</t>
-  </si>
-  <si>
-    <t>ThaiNKT</t>
-  </si>
-  <si>
-    <t>FA</t>
-  </si>
-  <si>
-    <t>WC5</t>
-  </si>
-  <si>
     <t>AnLPH</t>
-  </si>
-  <si>
-    <t>WC6</t>
-  </si>
-  <si>
-    <t>PhuongBT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,7 +95,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,134 +410,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5CF3195-E589-4CAE-8B93-E28CCCE5FA9D}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>15</v>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2">
+      <c r="A2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="E2">
+      <c r="D2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="0">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7">
+      <c r="E3" s="0">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>